--- a/Spend_comm10000.xlsx
+++ b/Spend_comm10000.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.294477</v>
+        <v>0.247586</v>
       </c>
     </row>
   </sheetData>
